--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/B/10/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/B/10/seed4/result_data_KNN.xlsx
@@ -584,7 +584,7 @@
         <v>-21.5</v>
       </c>
       <c r="B9" t="n">
-        <v>5.835999999999999</v>
+        <v>6.345999999999999</v>
       </c>
       <c r="C9" t="n">
         <v>-11.36</v>
@@ -737,7 +737,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>5.72</v>
+        <v>5.126</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -771,7 +771,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>7.896000000000001</v>
+        <v>6.967000000000001</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -890,7 +890,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>6.092000000000001</v>
+        <v>6.161</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -1604,7 +1604,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>6.005999999999999</v>
+        <v>5.306999999999999</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1723,7 +1723,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>6.004</v>
+        <v>6.308</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1825,7 +1825,7 @@
         <v>-22.09</v>
       </c>
       <c r="B82" t="n">
-        <v>5.812</v>
+        <v>5.366000000000001</v>
       </c>
       <c r="C82" t="n">
         <v>-14.08</v>
